--- a/paper_plot/Fig.5 event_performance(RH).xlsx
+++ b/paper_plot/Fig.5 event_performance(RH).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\my_paper\weather_downscaling\new_fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\research\weather downscale\github\paper_plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555C71D-DD0E-4875-866A-D9C148AF21E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D9C63B-A224-439E-8729-365C5DE7DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="3" xr2:uid="{13CE83DB-99A0-47C2-B7DF-2D100BDAF000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{13CE83DB-99A0-47C2-B7DF-2D100BDAF000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-05-14 23" sheetId="1" r:id="rId1"/>
@@ -2921,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E07C901-E6DD-4497-ADF5-05E1D5814A0D}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="I3:N10"/>
     </sheetView>
   </sheetViews>
@@ -3449,7 +3449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CE131E-4E49-4F11-B4BB-D812216E73B4}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="D39" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -7222,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AA6447-CA52-43FB-8AAF-7DD74F0447F4}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -7762,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAEF83C-4451-45A8-9BBC-A582D27044D1}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
